--- a/DOM_Banner/output/dept0713/Jennifer S Carew_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Jennifer S Carew_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>College of Veterinary Medicine, Northwest A&amp;amp;F University, Yangling, Shaanxi, China (C.B., S.L., Y.S., S.Z.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; Key Laboratory of Targeted Intervention of Cardiovascular Disease, Collaborative Innovation Center for Cardiovascular Disease Translational Medicine, and Department of Physiology, Nanjing Medical University, China (Y.H.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; College of Veterinary Medicine, Northwest A&amp;amp;F University, Yangling, Shaanxi, China (C.B., S.L., Y.S., S.Z.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; College of Veterinary Medicine, Northwest A&amp;amp;F University, Yangling, Shaanxi, China (C.B., S.L., Y.S., S.Z.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; College of Veterinary Medicine, Northwest A&amp;amp;F University, Yangling, Shaanxi, China (C.B., S.L., Y.S., S.Z.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; Center for Translational Science and Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, Florida International University, Port St. Lucie, FL (T.W., S.M.B.).; Department of Cellular Biology and Pharmacology, Herbert Wertheim College of Medicine, Miami, FL, (T.W., S.M.B.).; Banner University of Arizona Medical Center, Tucson, AZ (Y.G.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; Center for Translational Science and Department of Environmental Health Sciences, Robert Stempel College of Public Health and Social Work, Florida International University, Port St. Lucie, FL (T.W., S.M.B.).; Department of Cellular Biology and Pharmacology, Herbert Wertheim College of Medicine, Miami, FL, (T.W., S.M.B.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).; University of Arizona Cancer Center, Tucson, AZ (S.T.N., J.S.C.).; University of Arizona Cancer Center, Tucson, AZ (S.T.N., J.S.C.).; Department of Medicine, University of California, San Diego, La Jolla, CA (J.X.-J.).; State Key Laboratory of Respiratory Disease, National Clinical Research Center for Respiratory Disease, Guangdong Key Laboratory of Vascular Disease, Guangzhou Institute of Respiratory Health, The First Affiliated Hospital of Guangzhou Medical University, China (C.B., S.L., Z.Y., S.L., Y.S., S.Z., Y.L., K.W., J.W., H.T.).</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308549079</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>The Novel Lysosomal Autophagy Inhibitor (ROC-325) Ameliorates Experimental Pulmonary Hypertension</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Hypertension</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/hypertensionaha.122.19397</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36345832</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/hypertensionaha.122.19397</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 2Department of Urology, University of Arizona, Tucson, Arizona.; 2Department of Urology, University of Arizona, Tucson, Arizona.; 3Departments of Surgery and Biomedical Engineering, University of Arizona, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318483676</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-02-13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cancer research communications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Association for Cancer Research</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/2767-9764.crc-22-0340</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36860653</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1158/2767-9764.crc-22-0340</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,39 +626,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4360606537</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>MP28-15 A NEW STRATEGY TO ENHANCE CISPLATIN EFFICACY WHILE REDUCING NEPHROTOXICITY THROUGH TARGETED NEDDYLATION INHIBITION</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>The Journal of Urology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/ju.0000000000003256.15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1097/ju.0000000000003256.15</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,29 +708,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
+          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238285</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Data from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+          <t>https://openalex.org/W4361244000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Data from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,50 +738,55 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6497762</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6495818</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6497762</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6495818</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,29 +795,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
+          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361244000</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Data from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+          <t>https://openalex.org/W4361245380</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Supplementary Methods and Figure 1 from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -800,50 +825,55 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6495818</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22375283</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6495818</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22375283</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,29 +882,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
+          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361245380</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Supplementary Methods and Figure 1 from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+          <t>https://openalex.org/W4361248917</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Supplementary Figures 1-2 from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,50 +912,55 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22375283</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22368116</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22375283</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22368116</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,29 +969,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
+          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361245586</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Data from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+          <t>https://openalex.org/W4361261015</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Supplementary Figures 1-2 from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,50 +999,55 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6497762.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/0008-5472.22368116.v1</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6497762.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22368116.v1</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,24 +1061,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361248917</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1-2 from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+          <t>https://openalex.org/W4361262253</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Data from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2023-03-30</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,50 +1086,55 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22368116</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6495818.v1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22368116</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6495818.v1</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,27 +1143,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361261015</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1-2 from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+          <t>https://openalex.org/W4361882862</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Supplementary Table 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1128,50 +1173,55 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22368116.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22451385</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22368116.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22451385</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,27 +1230,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361262253</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Data from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+          <t>https://openalex.org/W4361883117</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Supplementary Figure 2 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1210,50 +1260,55 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6495818.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22451388</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6495818.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22451388</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,27 +1317,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361263664</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Supplementary Methods and Figure 1 from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+          <t>https://openalex.org/W4361883119</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>Supplementary Figure 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1292,50 +1347,55 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22375283.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22451391</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22375283.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22451391</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,29 +1404,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361882862</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>https://openalex.org/W4361885043</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Supplemental Table 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1374,50 +1434,55 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451385</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461408</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451385</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461408</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,29 +1491,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361883117</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Supplementary Figure 2 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>https://openalex.org/W4361885048</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 Part 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451388</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461423</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451388</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461423</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,29 +1578,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361883119</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Supplementary Figure 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>https://openalex.org/W4361885075</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 Part 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451391</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461426</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451391</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461426</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1595,24 +1670,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885043</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361885076</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Supplemental Figure 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461408</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461420</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461408</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461420</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,24 +1757,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885048</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361885084</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Supplemental Figure 4 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1702,50 +1782,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461423</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461414</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>it</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461423</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461414</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,24 +1844,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885075</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361885091</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 Part 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461426</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461429</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461426</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461429</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,24 +1931,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885076</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361885134</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Supplemental Figure 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1866,50 +1956,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461420</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461417</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461420</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461417</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1923,24 +2018,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885084</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361885144</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Supplemental Methods from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1948,50 +2043,55 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461414</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461411</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461414</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461411</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,29 +2100,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885091</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361885645</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461429</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463697</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461429</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463697</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,29 +2187,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885134</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361885756</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Supplemental Figure 2 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461417</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463694</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461417</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463694</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2164,29 +2274,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885144</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Supplemental Methods from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361908580</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Supplementary Table 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2194,50 +2304,55 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461411</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22451385.v1</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461411</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22451385.v1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2246,29 +2361,29 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885645</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4361919972</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 Part 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2276,50 +2391,55 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463697</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461423.v1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463697</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461423.v1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2328,29 +2448,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885647</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Supplemental Figure 5 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4361919975</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Supplemental Figure 4 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463685</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461414.v1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463685</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461414.v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2410,29 +2535,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885653</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Supplemental Figure 7 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4361919992</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Supplemental Figure 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2440,50 +2565,55 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463679</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461420.v1</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463679</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461420.v1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2492,29 +2622,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885756</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4361920000</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 Part 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2522,50 +2652,55 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463694</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461426.v1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463694</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461426.v1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2574,29 +2709,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885766</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4361920078</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Supplemental Methods from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2604,50 +2739,55 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463688</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461411.v1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463688</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461411.v1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2661,24 +2801,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885856</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Supplemental Figure 6 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4361922099</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Supplemental Figure 1 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2686,50 +2826,55 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463682</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463697.v1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463682</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463697.v1</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2743,24 +2888,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885936</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4361922113</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Supplemental Figure 7 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2768,50 +2913,55 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463691</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463679.v1</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ca</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463691</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463679.v1</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2820,29 +2970,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361908580</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>https://openalex.org/W4361922445</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Supplemental Figure 5 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2850,50 +3000,55 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451385.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463685.v1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451385.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463685.v1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2902,29 +3057,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919962</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361944417</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Data from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2932,50 +3087,55 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461408.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6522186</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461408.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6522186</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2989,24 +3149,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919971</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361945497</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Data from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3014,50 +3174,55 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461429.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6524787</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461429.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6524787</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3066,29 +3231,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919972</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361945794</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Data from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3096,50 +3261,55 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461423.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6525483</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461423.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6525483</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3148,29 +3318,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919975</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361952068</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>Data from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3178,50 +3348,55 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461414.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6525483.v1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461414.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6525483.v1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3235,24 +3410,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919992</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361954540</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Data from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3260,50 +3435,55 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461420.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6524787.v1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461420.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6524787.v1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3312,29 +3492,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361920000</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361958687</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Data from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3342,50 +3522,55 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461426.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6522186.v1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461426.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6522186.v1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3394,29 +3579,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361920031</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4361968467</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Supplementary Figure 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3424,50 +3609,55 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461417.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22451391.v1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J38" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461417.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22451391.v1</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3476,27 +3666,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361920078</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Supplemental Methods from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4362492736</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3506,50 +3696,55 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461411.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6536104</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461411.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6536104</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3558,27 +3753,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922080</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362525534</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3588,50 +3783,55 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463694.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6551135</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463694.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.c.6551135</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3640,27 +3840,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922099</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362533843</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figures 1 - 10 from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3670,50 +3870,55 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463697.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22499248.v1</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463697.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22499248.v1</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3722,27 +3927,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922107</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362534167</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure Legend from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3752,50 +3957,55 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463688.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22499251.v1</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463688.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22499251.v1</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3804,27 +4014,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922113</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Supplemental Figure 7 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362547376</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3834,50 +4044,55 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463679.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6551135.v1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463679.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.c.6551135.v1</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3886,27 +4101,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922429</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362611308</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure Legend from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3916,50 +4131,55 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463691.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22499251</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ca</t>
-        </is>
-      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463691.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22499251</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3968,27 +4188,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922437</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Supplemental Figure 6 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362611387</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figures 1 - 10 from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3998,50 +4218,55 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463682.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1535-7163.22499248</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463682.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.22499248</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4050,27 +4275,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922445</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Supplemental Figure 5 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362620767</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure S5 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4080,50 +4305,55 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463685.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22546286</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463685.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546286</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4132,27 +4362,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361944417</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Data from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>https://openalex.org/W4362620816</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Table TS2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4162,50 +4392,55 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6522186</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546280</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6522186</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546280</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4214,27 +4449,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361945497</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Data from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4362620821</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Table TS3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4244,50 +4479,55 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6524787</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546277</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6524787</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546277</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4296,27 +4536,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361945794</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Data from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362620824</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Table TS1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4326,50 +4566,55 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6525483</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546283</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6525483</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546283</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4378,27 +4623,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361952068</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Data from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>https://openalex.org/W4362620847</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure S3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4408,50 +4653,55 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6525483.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546292</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6525483.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546292</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4460,27 +4710,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361954540</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Data from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>https://openalex.org/W4362620991</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure S1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4490,50 +4740,55 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6524787.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546298</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6524787.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546298</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4542,27 +4797,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361958687</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Data from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>https://openalex.org/W4362621100</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure S2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4572,50 +4827,55 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6522186.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546295</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6522186.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546295</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4624,27 +4884,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361968238</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Supplementary Figure 2 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>https://openalex.org/W4362621105</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Figure S4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4654,50 +4914,55 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451388.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22546289</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J53" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451388.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546289</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4706,27 +4971,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361968467</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Supplementary Figure 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>https://openalex.org/W4362621328</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Table TS4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4736,50 +5001,55 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451391.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22546274</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451391.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546274</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4788,27 +5058,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362492736</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Data from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>https://openalex.org/W4362630692</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Supplementary Figure S2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4818,50 +5088,55 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6536104</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546295.v1</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6536104</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546295.v1</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4870,29 +5145,29 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362525477</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>https://openalex.org/W4362630705</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>Supplementary Table TS3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -4900,50 +5175,55 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.c.6550976</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546277.v1</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.c.6550976</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546277.v1</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4957,24 +5237,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362525534</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Data from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4362630712</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Supplementary Figure S3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -4982,50 +5262,55 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6551135</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546292.v1</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6551135</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546292.v1</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5034,29 +5319,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362532839</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>https://openalex.org/W4362630714</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>Supplementary Table TS2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -5064,50 +5349,55 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545554</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22546280.v1</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J58" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545554</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546280.v1</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5116,29 +5406,29 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362532954</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>https://openalex.org/W4362630757</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>Supplementary Table TS4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -5146,50 +5436,55 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545557</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22546274.v1</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J59" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545557</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546274.v1</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5198,27 +5493,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362533843</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1 - 10 from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>https://openalex.org/W4362630775</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Supplementary Table TS1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -5228,50 +5523,55 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499248.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22546283.v1</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J60" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499248.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546283.v1</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5280,27 +5580,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362534167</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legend from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>https://openalex.org/W4362630785</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Supplementary Figure S1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5310,50 +5610,55 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499251.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2767-9764.22546298.v1</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J61" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499251.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546298.v1</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5362,29 +5667,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362547156</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>https://openalex.org/W4362630791</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Supplementary Figure S5 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -5392,50 +5697,55 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.c.6550976.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546286.v1</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.c.6550976.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546286.v1</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5449,24 +5759,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362547376</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Data from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4362630815</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>Supplementary Figure S4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -5474,50 +5784,55 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6551135.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2767-9764.22546289.v1</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6551135.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2767-9764.22546289.v1</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5526,80 +5841,85 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Steffan T. Nawrocki, Julian Olea, Claudia Villa Celi, Homa Dadrastoussi, Kaijin Wu, Denice Tsao‐Wei, Anthony Colombo, Matt Coffey, Eduardo Fernandez Hernandez, Xuelian Chen, Gerard J. Nuovo, Jennifer S. Carew, Ann Mohrbacher, Paul Fields, Peter Kühn, Imran Siddiqi, Akil Merchant, Kevin R. Kelly</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362611308</t>
+          <t>University of Arizona Cancer Center, Tucson, AZ, United States; University of Southern California, Los Angeles, CA, United States; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 3Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California.; 3Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California.; Oncolytics Biotech (Canada), Calgary, Alberta, Canada; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; University of Southern California, LOS ANGELES, California, United States; The Ohio State University, Columbus, OH, United States; University of Arizona Cancer Center, Tucson, Arizona, United States; University of Southern California, Los Angeles, CA, United States; 6Formerly, Adaptive Biotechnologies, Seattle, Washington; currently, Tempus Labs, Seattle, Washington.; 7USC Michelson Center for Convergent Biosciences and Department of Biological Sciences, University of Southern California, Los Angeles.; University of Southern California Keck School of Mdicine, Los Angeles, CA, United States; Cedars-Sinai Medical Center, Los Angeles, United States; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legend from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>https://openalex.org/W4387439283</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Clinical Cancer Research</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499251</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.ccr-23-0229</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499251</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37812476</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.ccr-23-0229</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5608,80 +5928,85 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Carissa M. Feliciano, Jennifer S. Carew, Hetty E. Carraway, Justin M. Watts, Sharad Khurana, Bhumika J. Patel, Keri Maher, Claudia M. Espitia, Kaijin Wu, Denice Tsao-Wie, Xuelian Chen, Mikkael A. Sekeres, Stan G. Louie, Homa Dadrastoussi, Eduardo B. Fernández, Julian Olea, Brandon Sookdeo, Steffan T. Nawrocki, George Yaghmour, Kevin R. Kelly</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362611387</t>
+          <t>1Keck School of Medicine, University of Southern California, Los Angeles, CA; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 3Leukemia Program, Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH; 4Sylvester Comprehensive Cancer Center, University of Miami Miller School of Medicine, MIAMI, FL; 5University of Arizona Cancer Center, Tucson, AZ; 6Hematology Oncology Program, Prisma Health, Greenville; 7Massey Cancer Center, Virginia Commonwealth University, Tucson, AZ; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 9Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 10Sylvester Comprehensive Cancer Center, University of Miami, Miami, FL; 11Mann School of Pharmacy and Pharmaceutical Sciences, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 12USC Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 9Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 13Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1 - 10 from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>https://openalex.org/W4389247020</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>Phase 1b/2 Study of Escalating Doses of the NEDD8 Activating Enzyme Inhibitor Pevonedistat Administered in Combination with Standard Induction Therapy (Cytarabine and Idarubicin) in Newly Diagnosed High Risk Acute Myeloid Leukemia</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499248</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1182/blood-2023-185481</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499248</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1182/blood-2023-185481</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5690,80 +6015,85 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Vanessa Ogbuji, Irasema C. Paster, Alejandro Recio-Boiles, Jennifer S. Carew, Steffan T. Nawrocki, Juan Chipollini</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620767</t>
+          <t>College of Medicine, University of Arizona, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Supplementary Figure S5 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4390273304</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Current Landscape of Immune Checkpoint Inhibitors for Metastatic Urothelial Carcinoma: Is There a Role for Additional T-Cell Blockade?</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-27</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancers</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546286</t>
+          <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
+          <t>https://doi.org/10.3390/cancers16010131</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546286</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38201559</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/cancers16010131</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5772,27 +6102,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620816</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Supplementary Table TS2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361238285</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Data from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5802,50 +6132,55 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546280</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6497762</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546280</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6497762</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5854,27 +6189,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620821</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Supplementary Table TS3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361245586</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Data from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5884,50 +6219,55 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546277</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6497762.v1</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546277</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.c.6497762.v1</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5936,27 +6276,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620824</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Supplementary Table TS1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361263664</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplementary Methods and Figure 1 from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5966,50 +6306,55 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546283</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/0008-5472.22375283.v1</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546283</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/0008-5472.22375283.v1</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6018,27 +6363,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620847</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Supplementary Figure S3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361885647</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 5 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6048,50 +6393,55 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546292</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463685</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546292</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463685</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6100,27 +6450,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620991</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361885653</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 7 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6130,50 +6480,55 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546298</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463679</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J71" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546298</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463679</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6182,27 +6537,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362621100</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Supplementary Figure S2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361885766</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 4 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6212,50 +6567,55 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546295</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463688</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J72" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546295</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463688</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6264,27 +6624,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362621105</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Supplementary Figure S4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361885856</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 6 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6294,50 +6654,55 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546289</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463682</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J73" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546289</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463682</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6346,27 +6711,27 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362621328</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Supplementary Table TS4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361885936</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 3 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6376,50 +6741,55 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546274</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463691</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J74" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ca</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546274</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463691</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6428,27 +6798,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630567</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>https://openalex.org/W4361919962</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Table 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6458,50 +6828,55 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545557.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461408.v1</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J75" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545557.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461408.v1</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6510,27 +6885,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630623</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>https://openalex.org/W4361919971</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 1 Part 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6540,50 +6915,55 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545554.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461429.v1</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J76" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545554.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461429.v1</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6592,27 +6972,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630692</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Supplementary Figure S2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361920031</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -6622,50 +7002,55 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546295.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22461417.v1</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J77" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546295.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22461417.v1</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6674,27 +7059,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630705</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Supplementary Table TS3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361922080</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 2 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6704,50 +7089,55 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546277.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463694.v1</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J78" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546277.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463694.v1</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6756,27 +7146,27 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630712</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Supplementary Figure S3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361922107</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 4 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6786,50 +7176,55 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546292.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463688.v1</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546292.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463688.v1</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6838,27 +7233,27 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630714</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Supplementary Table TS2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361922429</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 3 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6868,50 +7263,55 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546280.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463691.v1</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J80" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ca</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546280.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463691.v1</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6920,27 +7320,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630757</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Supplementary Table TS4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361922437</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplemental Figure 6 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6950,50 +7350,55 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546274.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22463682.v1</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J81" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546274.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22463682.v1</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7002,27 +7407,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630775</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Supplementary Table TS1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4361968238</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>Supplementary Figure 2 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -7032,50 +7437,55 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546283.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22451388.v1</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J82" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546283.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22451388.v1</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7084,29 +7494,29 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630785</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4362525477</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -7114,50 +7524,55 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546298.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/2643-3230.c.6550976</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546298.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2643-3230.c.6550976</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7166,29 +7581,29 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630791</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Supplementary Figure S5 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4362532839</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -7196,50 +7611,55 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546286.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2643-3230.22545554</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J84" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546286.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2643-3230.22545554</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7248,29 +7668,29 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630815</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Supplementary Figure S4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>https://openalex.org/W4362532954</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>2023-04-04</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -7278,50 +7698,55 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546289.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/2643-3230.22545557</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
       <c r="J85" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>nl</t>
-        </is>
-      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546289.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2643-3230.22545557</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7330,80 +7755,85 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Julian Olea, Claudia Villa Celi, Homa Dadrastoussi, Kaijin Wu, Denice Tsao‐Wei, Anthony Colombo, Matt Coffey, Eduardo Fernandez Hernandez, Xuelian Chen, Gerard J. Nuovo, Jennifer S. Carew, Ann Mohrbacher, Paul Fields, Peter Kühn, Imran Siddiqi, Akil Merchant, Kevin R. Kelly</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387439283</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
+          <t>https://openalex.org/W4362547156</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Clinical Cancer Research</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.ccr-23-0229</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1158/2643-3230.c.6550976.v1</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37812476</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.ccr-23-0229</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2643-3230.c.6550976.v1</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7412,80 +7842,85 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Carissa M. Feliciano, Jennifer S. Carew, Hetty E. Carraway, Justin M. Watts, Sharad Khurana, Bhumika J. Patel, Keri Maher, Claudia M. Espitia, Kaijin Wu, Denice Tsao-Wie, Xuelian Chen, Mikkael A. Sekeres, Stan G. Louie, Homa Dadrastoussi, Eduardo B. Fernández, Julian Olea, Brandon Sookdeo, Steffan T. Nawrocki, George Yaghmour, Kevin R. Kelly</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389247020</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Phase 1b/2 Study of Escalating Doses of the NEDD8 Activating Enzyme Inhibitor Pevonedistat Administered in Combination with Standard Induction Therapy (Cytarabine and Idarubicin) in Newly Diagnosed High Risk Acute Myeloid Leukemia</t>
+          <t>https://openalex.org/W4362630567</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-185481</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2643-3230.22545557.v1</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-185481</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2643-3230.22545557.v1</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7494,27 +7929,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Julian Olea, Claudia Villa Celi, Homa Dadrastoussi, Kaijin Wu, Denice Tsao‐Wei, Anthony Colombo, Matt Coffey, Eduardo Fernandez Hernandez, Xuelian Chen, Gerard J. Nuovo, Jennifer S. Carew, Ann Mohrbacher, Paul Fields, Peter Kühn, Imran Siddiqi, Akil Merchant, Kevin R. Kelly</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389816721</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Data from Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
+          <t>https://openalex.org/W4362630623</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7524,50 +7959,55 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6982800</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/2643-3230.22545554.v1</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6982800</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/2643-3230.22545554.v1</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7581,24 +8021,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389820136</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4389816721</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>Data from Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023-12-15</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -7606,50 +8046,55 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6982800.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6982800</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6982800.v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6982800</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -7658,80 +8103,85 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Vanessa Ogbuji, Irasema C. Paster, Alejandro Recio-Boiles, Jennifer S. Carew, Steffan T. Nawrocki, Juan Chipollini</t>
+          <t>Steffan T. Nawrocki, Julian Olea, Claudia Villa Celi, Homa Dadrastoussi, Kaijin Wu, Denice Tsao‐Wei, Anthony Colombo, Matt Coffey, Eduardo Fernandez Hernandez, Xuelian Chen, Gerard J. Nuovo, Jennifer S. Carew, Ann Mohrbacher, Paul Fields, Peter Kühn, Imran Siddiqi, Akil Merchant, Kevin R. Kelly</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390273304</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Current Landscape of Immune Checkpoint Inhibitors for Metastatic Urothelial Carcinoma: Is There a Role for Additional T-Cell Blockade?</t>
+          <t>https://openalex.org/W4389820136</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>Data from Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cancers</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cancers16010131</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6982800.v1</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38201559</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cancers16010131</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6982800.v1</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Jennifer S Carew_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Jennifer S Carew_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,32 +534,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Julian Olea, Claudia Villa Celi, Homa Dadrastoussi, Kaijin Wu, Denice Tsao‐Wei, Anthony Colombo, Matt Coffey, Eduardo Fernandez Hernandez, Xuelian Chen, Gerard J. Nuovo, Jennifer S. Carew, Ann Mohrbacher, Paul Fields, Peter Kühn, Imran Siddiqi, Akil Merchant, Kevin R. Kelly</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 2Department of Urology, University of Arizona, Tucson, Arizona.; 2Department of Urology, University of Arizona, Tucson, Arizona.; 3Departments of Surgery and Biomedical Engineering, University of Arizona, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.</t>
+          <t>University of Arizona Cancer Center, Tucson, AZ, United States; University of Southern California, Los Angeles, CA, United States; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 3Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California.; 3Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California.; Oncolytics Biotech (Canada), Calgary, Alberta, Canada; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; University of Southern California, LOS ANGELES, California, United States; The Ohio State University, Columbus, OH, United States; University of Arizona Cancer Center, Tucson, Arizona, United States; University of Southern California, Los Angeles, CA, United States; 6Formerly, Adaptive Biotechnologies, Seattle, Washington; currently, Tempus Labs, Seattle, Washington.; 7USC Michelson Center for Convergent Biosciences and Department of Biological Sciences, University of Southern California, Los Angeles.; University of Southern California Keck School of Mdicine, Los Angeles, CA, United States; Cedars-Sinai Medical Center, Los Angeles, United States; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318483676</t>
+          <t>https://openalex.org/W4387439283</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cancer research communications</t>
+          <t>Clinical Cancer Research</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -569,12 +569,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.crc-22-0340</t>
+          <t>https://doi.org/10.1158/1078-0432.ccr-23-0229</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -604,12 +604,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36860653</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37812476</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.crc-22-0340</t>
+          <t>https://doi.org/10.1158/1078-0432.ccr-23-0229</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -621,42 +621,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kyle Garcia, Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4360606537</t>
+          <t>https://openalex.org/W4361262253</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MP28-15 A NEW STRATEGY TO ENHANCE CISPLATIN EFFICACY WHILE REDUCING NEPHROTOXICITY THROUGH TARGETED NEDDYLATION INHIBITION</t>
+          <t>Data from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The Journal of Urology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/ju.0000000000003256.15</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6495818.v1</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/ju.0000000000003256.15</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6495818.v1</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -708,27 +708,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361244000</t>
+          <t>https://openalex.org/W4361885856</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Data from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+          <t>Supplemental Figure 6 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -743,12 +743,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6495818</t>
+          <t>https://doi.org/10.1158/1078-0432.22463682</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6495818</t>
+          <t>https://doi.org/10.1158/1078-0432.22463682</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -795,27 +795,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361245380</t>
+          <t>https://openalex.org/W4361968238</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Supplementary Methods and Figure 1 from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+          <t>Supplementary Figure 2 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22375283</t>
+          <t>https://doi.org/10.1158/1078-0432.22451388.v1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22375283</t>
+          <t>https://doi.org/10.1158/1078-0432.22451388.v1</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -882,27 +882,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361248917</t>
+          <t>https://openalex.org/W4362620824</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1-2 from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+          <t>Supplementary Table TS1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22368116</t>
+          <t>https://doi.org/10.1158/2767-9764.22546283</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22368116</t>
+          <t>https://doi.org/10.1158/2767-9764.22546283</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -969,57 +969,57 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
+          <t>Carissa M. Feliciano, Jennifer S. Carew, Hetty E. Carraway, Justin M. Watts, Sharad Khurana, Bhumika J. Patel, Keri Maher, Claudia M. Espitia, Kaijin Wu, Denice Tsao-Wie, Xuelian Chen, Mikkael A. Sekeres, Stan G. Louie, Homa Dadrastoussi, Eduardo B. Fernández, Julian Olea, Brandon Sookdeo, Steffan T. Nawrocki, George Yaghmour, Kevin R. Kelly</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t>1Keck School of Medicine, University of Southern California, Los Angeles, CA; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 3Leukemia Program, Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH; 4Sylvester Comprehensive Cancer Center, University of Miami Miller School of Medicine, MIAMI, FL; 5University of Arizona Cancer Center, Tucson, AZ; 6Hematology Oncology Program, Prisma Health, Greenville; 7Massey Cancer Center, Virginia Commonwealth University, Tucson, AZ; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 9Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 10Sylvester Comprehensive Cancer Center, University of Miami, Miami, FL; 11Mann School of Pharmacy and Pharmaceutical Sciences, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 12USC Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 9Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 13Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361261015</t>
+          <t>https://openalex.org/W4389247020</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1-2 from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+          <t>Phase 1b/2 Study of Escalating Doses of the NEDD8 Activating Enzyme Inhibitor Pevonedistat Administered in Combination with Standard Induction Therapy (Cytarabine and Idarubicin) in Newly Diagnosed High Risk Acute Myeloid Leukemia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22368116.v1</t>
+          <t>https://doi.org/10.1182/blood-2023-185481</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22368116.v1</t>
+          <t>https://doi.org/10.1182/blood-2023-185481</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,57 +1056,57 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; </t>
+          <t>1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 2Department of Urology, University of Arizona, Tucson, Arizona.; 2Department of Urology, University of Arizona, Tucson, Arizona.; 3Departments of Surgery and Biomedical Engineering, University of Arizona, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 1Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361262253</t>
+          <t>https://openalex.org/W4318483676</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Data from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
+          <t>Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancer research communications</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6495818.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.crc-22-0340</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36860653</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6495818.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.crc-22-0340</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1143,57 +1143,57 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Kyle Garcia, Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361882862</t>
+          <t>https://openalex.org/W4360606537</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>MP28-15 A NEW STRATEGY TO ENHANCE CISPLATIN EFFICACY WHILE REDUCING NEPHROTOXICITY THROUGH TARGETED NEDDYLATION INHIBITION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>The Journal of Urology</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451385</t>
+          <t>https://doi.org/10.1097/ju.0000000000003256.15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451385</t>
+          <t>https://doi.org/10.1097/ju.0000000000003256.15</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,27 +1230,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361883117</t>
+          <t>https://openalex.org/W4361238285</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Supplementary Figure 2 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>Data from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451388</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6497762</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451388</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6497762</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,27 +1317,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361883119</t>
+          <t>https://openalex.org/W4361244000</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Supplementary Figure 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>Data from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451391</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6495818</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451391</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6495818</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,27 +1404,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885043</t>
+          <t>https://openalex.org/W4361245380</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Methods and Figure 1 from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461408</t>
+          <t>https://doi.org/10.1158/0008-5472.22375283</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461408</t>
+          <t>https://doi.org/10.1158/0008-5472.22375283</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,27 +1491,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885048</t>
+          <t>https://openalex.org/W4361245586</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Data from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461423</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6497762.v1</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461423</t>
+          <t>https://doi.org/10.1158/0008-5472.c.6497762.v1</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,27 +1578,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885075</t>
+          <t>https://openalex.org/W4361248917</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Figures 1-2 from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461426</t>
+          <t>https://doi.org/10.1158/0008-5472.22368116</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461426</t>
+          <t>https://doi.org/10.1158/0008-5472.22368116</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,27 +1665,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Jennifer S. Carew, Douglas L. Leslie, John L. Cleveland, Robin P. Humphreys, Janet A. Houghton</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885076</t>
+          <t>https://openalex.org/W4361261015</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Figures 1-2 from Histone Deacetylase Inhibitors Enhance Lexatumumab-Induced Apoptosis via a p21&amp;lt;sup&amp;gt;Cip1&amp;lt;/sup&amp;gt;-Dependent Decrease in Survivin Levels</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461420</t>
+          <t>https://doi.org/10.1158/0008-5472.22368116.v1</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461420</t>
+          <t>https://doi.org/10.1158/0008-5472.22368116.v1</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,27 +1752,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885084</t>
+          <t>https://openalex.org/W4361263664</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Methods and Figure 1 from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461414</t>
+          <t>https://doi.org/10.1158/0008-5472.22375283.v1</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461414</t>
+          <t>https://doi.org/10.1158/0008-5472.22375283.v1</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,22 +1839,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885091</t>
+          <t>https://openalex.org/W4361882862</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Table 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461429</t>
+          <t>https://doi.org/10.1158/1078-0432.22451385</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461429</t>
+          <t>https://doi.org/10.1158/1078-0432.22451385</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,22 +1926,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885134</t>
+          <t>https://openalex.org/W4361883117</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Figure 2 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461417</t>
+          <t>https://doi.org/10.1158/1078-0432.22451388</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461417</t>
+          <t>https://doi.org/10.1158/1078-0432.22451388</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,22 +2013,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885144</t>
+          <t>https://openalex.org/W4361883119</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Supplemental Methods from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Figure 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461411</t>
+          <t>https://doi.org/10.1158/1078-0432.22451391</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461411</t>
+          <t>https://doi.org/10.1158/1078-0432.22451391</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,22 +2100,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885645</t>
+          <t>https://openalex.org/W4361885043</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplemental Table 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463697</t>
+          <t>https://doi.org/10.1158/1078-0432.22461408</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463697</t>
+          <t>https://doi.org/10.1158/1078-0432.22461408</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885756</t>
+          <t>https://openalex.org/W4361885048</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplemental Figure 1 Part 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463694</t>
+          <t>https://doi.org/10.1158/1078-0432.22461423</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463694</t>
+          <t>https://doi.org/10.1158/1078-0432.22461423</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,22 +2274,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361908580</t>
+          <t>https://openalex.org/W4361885075</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Supplementary Table 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>Supplemental Figure 1 Part 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451385.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461426</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451385.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461426</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919972</t>
+          <t>https://openalex.org/W4361885076</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplemental Figure 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461423.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461420</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461423.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461420</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919975</t>
+          <t>https://openalex.org/W4361885084</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461414.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461414</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461414.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461414</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2545,12 +2545,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919992</t>
+          <t>https://openalex.org/W4361885091</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplemental Figure 1 Part 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461420.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461429</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461420.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461429</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361920000</t>
+          <t>https://openalex.org/W4361885134</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplemental Figure 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461426.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461417</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461426.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461417</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361920078</t>
+          <t>https://openalex.org/W4361885144</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461411.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461411</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2759,7 +2759,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461411.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461411</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922099</t>
+          <t>https://openalex.org/W4361885645</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463697.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22463697</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463697.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22463697</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922113</t>
+          <t>https://openalex.org/W4361885647</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Supplemental Figure 7 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplemental Figure 5 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463679.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22463685</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463679.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22463685</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922445</t>
+          <t>https://openalex.org/W4361885653</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Supplemental Figure 5 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplemental Figure 7 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463685.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22463679</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463685.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22463679</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3057,22 +3057,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361944417</t>
+          <t>https://openalex.org/W4361885756</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Data from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>Supplemental Figure 2 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6522186</t>
+          <t>https://doi.org/10.1158/1078-0432.22463694</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6522186</t>
+          <t>https://doi.org/10.1158/1078-0432.22463694</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3144,22 +3144,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361945497</t>
+          <t>https://openalex.org/W4361885766</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Data from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplemental Figure 4 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6524787</t>
+          <t>https://doi.org/10.1158/1078-0432.22463688</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6524787</t>
+          <t>https://doi.org/10.1158/1078-0432.22463688</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3241,12 +3241,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361945794</t>
+          <t>https://openalex.org/W4361885936</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Data from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplemental Figure 3 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6525483</t>
+          <t>https://doi.org/10.1158/1078-0432.22463691</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3286,7 +3286,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ca</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6525483</t>
+          <t>https://doi.org/10.1158/1078-0432.22463691</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3318,22 +3318,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361952068</t>
+          <t>https://openalex.org/W4361908580</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Data from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Table 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6525483.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22451385.v1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6525483.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22451385.v1</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361954540</t>
+          <t>https://openalex.org/W4361919962</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Data from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplemental Table 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6524787.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461408.v1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6524787.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461408.v1</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3492,22 +3492,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361958687</t>
+          <t>https://openalex.org/W4361919971</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Data from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>Supplemental Figure 1 Part 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3527,12 +3527,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6522186.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461429.v1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6522186.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461429.v1</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3579,22 +3579,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361968467</t>
+          <t>https://openalex.org/W4361919972</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Supplementary Figure 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>Supplemental Figure 1 Part 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451391.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461423.v1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451391.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461423.v1</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3666,27 +3666,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362492736</t>
+          <t>https://openalex.org/W4361919975</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Data from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>Supplemental Figure 4 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6536104</t>
+          <t>https://doi.org/10.1158/1078-0432.22461414.v1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.c.6536104</t>
+          <t>https://doi.org/10.1158/1078-0432.22461414.v1</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3753,27 +3753,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362525534</t>
+          <t>https://openalex.org/W4361919992</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Data from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplemental Figure 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3788,12 +3788,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6551135</t>
+          <t>https://doi.org/10.1158/1078-0432.22461420.v1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6551135</t>
+          <t>https://doi.org/10.1158/1078-0432.22461420.v1</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3840,27 +3840,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362533843</t>
+          <t>https://openalex.org/W4361920000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1 - 10 from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>Supplemental Figure 1 Part 2 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499248.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461426.v1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>it</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499248.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461426.v1</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3927,27 +3927,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362534167</t>
+          <t>https://openalex.org/W4361920031</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legend from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>Supplemental Figure 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499251.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461417.v1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499251.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461417.v1</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4014,27 +4014,27 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362547376</t>
+          <t>https://openalex.org/W4361920078</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Data from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplemental Methods from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4049,12 +4049,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6551135.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461411.v1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4064,7 +4064,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.c.6551135.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22461411.v1</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4101,27 +4101,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362611308</t>
+          <t>https://openalex.org/W4361922080</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Supplementary Figure Legend from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>Supplemental Figure 2 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499251</t>
+          <t>https://doi.org/10.1158/1078-0432.22463694.v1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499251</t>
+          <t>https://doi.org/10.1158/1078-0432.22463694.v1</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4188,27 +4188,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, W. H. Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362611387</t>
+          <t>https://openalex.org/W4361922099</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Supplementary Figures 1 - 10 from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+          <t>Supplemental Figure 1 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2023-04-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499248</t>
+          <t>https://doi.org/10.1158/1078-0432.22463697.v1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4243,7 +4243,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1535-7163.22499248</t>
+          <t>https://doi.org/10.1158/1078-0432.22463697.v1</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4275,7 +4275,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4285,17 +4285,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620767</t>
+          <t>https://openalex.org/W4361922107</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Supplementary Figure S5 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplemental Figure 4 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546286</t>
+          <t>https://doi.org/10.1158/1078-0432.22463688.v1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546286</t>
+          <t>https://doi.org/10.1158/1078-0432.22463688.v1</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4362,7 +4362,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4372,17 +4372,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620816</t>
+          <t>https://openalex.org/W4361922113</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Supplementary Table TS2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplemental Figure 7 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546280</t>
+          <t>https://doi.org/10.1158/1078-0432.22463679.v1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546280</t>
+          <t>https://doi.org/10.1158/1078-0432.22463679.v1</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4449,7 +4449,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4459,17 +4459,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620821</t>
+          <t>https://openalex.org/W4361922429</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Supplementary Table TS3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplemental Figure 3 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546277</t>
+          <t>https://doi.org/10.1158/1078-0432.22463691.v1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ca</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546277</t>
+          <t>https://doi.org/10.1158/1078-0432.22463691.v1</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4536,7 +4536,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4546,17 +4546,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620824</t>
+          <t>https://openalex.org/W4361922437</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Supplementary Table TS1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplemental Figure 6 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546283</t>
+          <t>https://doi.org/10.1158/1078-0432.22463682.v1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546283</t>
+          <t>https://doi.org/10.1158/1078-0432.22463682.v1</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4623,7 +4623,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4633,17 +4633,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620847</t>
+          <t>https://openalex.org/W4361922445</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Supplementary Figure S3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplemental Figure 5 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546292</t>
+          <t>https://doi.org/10.1158/1078-0432.22463685.v1</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546292</t>
+          <t>https://doi.org/10.1158/1078-0432.22463685.v1</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4710,27 +4710,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362620991</t>
+          <t>https://openalex.org/W4361944417</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546298</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6522186</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546298</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6522186</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4797,27 +4797,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362621100</t>
+          <t>https://openalex.org/W4361945497</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Supplementary Figure S2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4832,12 +4832,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546295</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6524787</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546295</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6524787</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4894,17 +4894,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362621105</t>
+          <t>https://openalex.org/W4361945794</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Supplementary Figure S4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546289</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6525483</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546289</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6525483</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4971,7 +4971,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4981,17 +4981,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362621328</t>
+          <t>https://openalex.org/W4361952068</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Supplementary Table TS4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5006,12 +5006,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546274</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6525483.v1</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546274</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6525483.v1</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5058,27 +5058,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630692</t>
+          <t>https://openalex.org/W4361954540</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Supplementary Figure S2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5093,12 +5093,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546295.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6524787.v1</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546295.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6524787.v1</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5145,27 +5145,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630705</t>
+          <t>https://openalex.org/W4361958687</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Supplementary Table TS3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5180,12 +5180,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546277.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6522186.v1</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546277.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6522186.v1</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5232,27 +5232,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630712</t>
+          <t>https://openalex.org/W4361968467</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Supplementary Figure S3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplementary Figure 1 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546292.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22451391.v1</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546292.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22451391.v1</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5319,27 +5319,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, William Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630714</t>
+          <t>https://openalex.org/W4362492736</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Supplementary Table TS2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5354,12 +5354,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546280.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6536104</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546280.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.c.6536104</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5406,22 +5406,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630757</t>
+          <t>https://openalex.org/W4362525477</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Supplementary Table TS4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5441,12 +5441,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546274.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.c.6550976</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546274.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.c.6550976</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5503,12 +5503,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630775</t>
+          <t>https://openalex.org/W4362525534</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Supplementary Table TS1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Data from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546283.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6551135</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546283.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6551135</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5580,22 +5580,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630785</t>
+          <t>https://openalex.org/W4362532839</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Supplementary Figure S1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546298.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.22545554</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546298.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.22545554</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -5667,22 +5667,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630791</t>
+          <t>https://openalex.org/W4362532954</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Supplementary Figure S5 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546286.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.22545557</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546286.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.22545557</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -5754,27 +5754,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, William Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630815</t>
+          <t>https://openalex.org/W4362533843</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Supplementary Figure S4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
+          <t>Supplementary Figures 1 - 10 from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546289.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22499248.v1</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2767-9764.22546289.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22499248.v1</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -5841,57 +5841,57 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Julian Olea, Claudia Villa Celi, Homa Dadrastoussi, Kaijin Wu, Denice Tsao‐Wei, Anthony Colombo, Matt Coffey, Eduardo Fernandez Hernandez, Xuelian Chen, Gerard J. Nuovo, Jennifer S. Carew, Ann Mohrbacher, Paul Fields, Peter Kühn, Imran Siddiqi, Akil Merchant, Kevin R. Kelly</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, William Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>University of Arizona Cancer Center, Tucson, AZ, United States; University of Southern California, Los Angeles, CA, United States; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; 3Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California.; 3Department of Preventive Medicine, Keck School of Medicine, University of Southern California, Los Angeles, California.; Oncolytics Biotech (Canada), Calgary, Alberta, Canada; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.; University of Southern California, LOS ANGELES, California, United States; The Ohio State University, Columbus, OH, United States; University of Arizona Cancer Center, Tucson, Arizona, United States; University of Southern California, Los Angeles, CA, United States; 6Formerly, Adaptive Biotechnologies, Seattle, Washington; currently, Tempus Labs, Seattle, Washington.; 7USC Michelson Center for Convergent Biosciences and Department of Biological Sciences, University of Southern California, Los Angeles.; University of Southern California Keck School of Mdicine, Los Angeles, CA, United States; Cedars-Sinai Medical Center, Los Angeles, United States; 2Division of Hematology, Health Sciences Campus, University of Southern California, Los Angeles, California.</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387439283</t>
+          <t>https://openalex.org/W4362534167</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
+          <t>Supplementary Figure Legend from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Clinical Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.ccr-23-0229</t>
+          <t>https://doi.org/10.1158/1535-7163.22499251.v1</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5911,12 +5911,12 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37812476</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.ccr-23-0229</t>
+          <t>https://doi.org/10.1158/1535-7163.22499251.v1</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -5928,42 +5928,42 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Carissa M. Feliciano, Jennifer S. Carew, Hetty E. Carraway, Justin M. Watts, Sharad Khurana, Bhumika J. Patel, Keri Maher, Claudia M. Espitia, Kaijin Wu, Denice Tsao-Wie, Xuelian Chen, Mikkael A. Sekeres, Stan G. Louie, Homa Dadrastoussi, Eduardo B. Fernández, Julian Olea, Brandon Sookdeo, Steffan T. Nawrocki, George Yaghmour, Kevin R. Kelly</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1Keck School of Medicine, University of Southern California, Los Angeles, CA; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 3Leukemia Program, Taussig Cancer Institute, Cleveland Clinic, Cleveland, OH; 4Sylvester Comprehensive Cancer Center, University of Miami Miller School of Medicine, MIAMI, FL; 5University of Arizona Cancer Center, Tucson, AZ; 6Hematology Oncology Program, Prisma Health, Greenville; 7Massey Cancer Center, Virginia Commonwealth University, Tucson, AZ; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 9Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 10Sylvester Comprehensive Cancer Center, University of Miami, Miami, FL; 11Mann School of Pharmacy and Pharmaceutical Sciences, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 12USC Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 8Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles, CA; 2Division of Hematology and Oncology, University of Arizona Cancer Center, Tucson, AZ; 9Norris Comprehensive Cancer Center, University of Southern California, Los Angeles, CA; 13Division of Hematology, Keck School of Medicine, University of Southern California, Los Angeles</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389247020</t>
+          <t>https://openalex.org/W4362547156</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Phase 1b/2 Study of Escalating Doses of the NEDD8 Activating Enzyme Inhibitor Pevonedistat Administered in Combination with Standard Induction Therapy (Cytarabine and Idarubicin) in Newly Diagnosed High Risk Acute Myeloid Leukemia</t>
+          <t>Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Blood</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-185481</t>
+          <t>https://doi.org/10.1158/2643-3230.c.6550976.v1</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1182/blood-2023-185481</t>
+          <t>https://doi.org/10.1158/2643-3230.c.6550976.v1</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -6015,57 +6015,57 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vanessa Ogbuji, Irasema C. Paster, Alejandro Recio-Boiles, Jennifer S. Carew, Steffan T. Nawrocki, Juan Chipollini</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>College of Medicine, University of Arizona, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390273304</t>
+          <t>https://openalex.org/W4362547376</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Current Landscape of Immune Checkpoint Inhibitors for Metastatic Urothelial Carcinoma: Is There a Role for Additional T-Cell Blockade?</t>
+          <t>Data from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2023-12-27</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Cancers</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Multidisciplinary Digital Publishing Institute</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cancers16010131</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6551135.v1</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -6085,12 +6085,12 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38201559</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/cancers16010131</t>
+          <t>https://doi.org/10.1158/2767-9764.c.6551135.v1</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -6102,27 +6102,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, William Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361238285</t>
+          <t>https://openalex.org/W4362611308</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Data from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+          <t>Supplementary Figure Legend from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6137,12 +6137,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6497762</t>
+          <t>https://doi.org/10.1158/1535-7163.22499251</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6497762</t>
+          <t>https://doi.org/10.1158/1535-7163.22499251</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -6189,27 +6189,27 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, William Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361245586</t>
+          <t>https://openalex.org/W4362611387</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Data from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+          <t>Supplementary Figures 1 - 10 from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6224,12 +6224,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6497762.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22499248</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.c.6497762.v1</t>
+          <t>https://doi.org/10.1158/1535-7163.22499248</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -6276,27 +6276,27 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Steffan T. Nawrocki, Venudhar K. Reddy, Dorothy Bush, Jerold E. Rehg, Andrew L. Goodwin, Janet A. Houghton, Robert A. Casero, Laurence J. Marton, John L. Cleveland</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361263664</t>
+          <t>https://openalex.org/W4362620767</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Supplementary Methods and Figure 1 from The Novel Polyamine Analogue CGC-11093 Enhances the Antimyeloma Activity of Bortezomib</t>
+          <t>Supplementary Figure S5 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22375283.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546286</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/0008-5472.22375283.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546286</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -6363,7 +6363,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6373,17 +6373,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885647</t>
+          <t>https://openalex.org/W4362620816</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Supplemental Figure 5 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Table TS2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463685</t>
+          <t>https://doi.org/10.1158/2767-9764.22546280</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6418,7 +6418,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463685</t>
+          <t>https://doi.org/10.1158/2767-9764.22546280</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -6450,7 +6450,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6460,17 +6460,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885653</t>
+          <t>https://openalex.org/W4362620821</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Supplemental Figure 7 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Table TS3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463679</t>
+          <t>https://doi.org/10.1158/2767-9764.22546277</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463679</t>
+          <t>https://doi.org/10.1158/2767-9764.22546277</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -6537,7 +6537,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6547,17 +6547,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885766</t>
+          <t>https://openalex.org/W4362620847</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Figure S3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463688</t>
+          <t>https://doi.org/10.1158/2767-9764.22546292</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463688</t>
+          <t>https://doi.org/10.1158/2767-9764.22546292</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -6624,7 +6624,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6634,17 +6634,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885856</t>
+          <t>https://openalex.org/W4362620991</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Supplemental Figure 6 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Figure S1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463682</t>
+          <t>https://doi.org/10.1158/2767-9764.22546298</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463682</t>
+          <t>https://doi.org/10.1158/2767-9764.22546298</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -6711,7 +6711,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6721,17 +6721,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361885936</t>
+          <t>https://openalex.org/W4362621100</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Figure S2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463691</t>
+          <t>https://doi.org/10.1158/2767-9764.22546295</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>ca</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463691</t>
+          <t>https://doi.org/10.1158/2767-9764.22546295</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -6798,27 +6798,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919962</t>
+          <t>https://openalex.org/W4362621105</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Supplemental Table 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Figure S4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461408.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546289</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6853,7 +6853,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461408.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546289</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -6885,27 +6885,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361919971</t>
+          <t>https://openalex.org/W4362621328</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Supplemental Figure 1 Part 1 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Table TS4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461429.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546274</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461429.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546274</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -6972,27 +6972,27 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Mignon Keaton, Hetty E. Carraway, Mikkael A. Sekeres, Jaroslaw P. Maciejewski, Jennifer S. Carew</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361920031</t>
+          <t>https://openalex.org/W4362630567</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from The NEDD8-Activating Enzyme Inhibitor MLN4924 Disrupts Nucleotide Metabolism and Augments the Efficacy of Cytarabine</t>
+          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461417.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.22545557.v1</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22461417.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.22545557.v1</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -7059,27 +7059,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922080</t>
+          <t>https://openalex.org/W4362630623</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Supplemental Figure 2 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463694.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.22545554.v1</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463694.v1</t>
+          <t>https://doi.org/10.1158/2643-3230.22545554.v1</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -7146,7 +7146,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -7156,17 +7156,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922107</t>
+          <t>https://openalex.org/W4362630692</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Supplemental Figure 4 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Figure S2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463688.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546295.v1</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463688.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546295.v1</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -7233,7 +7233,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -7243,17 +7243,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922429</t>
+          <t>https://openalex.org/W4362630705</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Supplemental Figure 3 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Table TS3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463691.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546277.v1</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>ca</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -7308,7 +7308,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463691.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546277.v1</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -7320,7 +7320,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Jennifer S. Carew, Claudia M. Espitia, Wei Zhao, Yingchun Han, Valeria Visconte, James G. Phillips, Steffan T. Nawrocki</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -7330,17 +7330,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361922437</t>
+          <t>https://openalex.org/W4362630712</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Supplemental Figure 6 from Disruption of Autophagic Degradation with ROC-325 Antagonizes Renal Cell Carcinoma Pathogenesis</t>
+          <t>Supplementary Figure S3 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463682.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546292.v1</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22463682.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546292.v1</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -7407,27 +7407,27 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Kevin R. Kelly, Peter G. Smith, Claudia M. Espitia, Anthony Possemato, Sean A. Beausoleil, Michael A. Milhollen, Stephen J. Blakemore, Michael Thomas, Allison Berger, Jennifer S. Carew</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361968238</t>
+          <t>https://openalex.org/W4362630714</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Supplementary Figure 2 from Disrupting Protein NEDDylation with MLN4924 Is a Novel Strategy to Target Cisplatin Resistance in Ovarian Cancer</t>
+          <t>Supplementary Table TS2 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-04-04</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451388.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546280.v1</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22451388.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546280.v1</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -7494,22 +7494,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362525477</t>
+          <t>https://openalex.org/W4362630757</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>Supplementary Table TS4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7529,12 +7529,12 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.c.6550976</t>
+          <t>https://doi.org/10.1158/2767-9764.22546274.v1</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.c.6550976</t>
+          <t>https://doi.org/10.1158/2767-9764.22546274.v1</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -7581,22 +7581,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362532839</t>
+          <t>https://openalex.org/W4362630775</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>Supplementary Table TS1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545554</t>
+          <t>https://doi.org/10.1158/2767-9764.22546283.v1</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545554</t>
+          <t>https://doi.org/10.1158/2767-9764.22546283.v1</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -7668,22 +7668,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362532954</t>
+          <t>https://openalex.org/W4362630785</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>Supplementary Figure S1 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545557</t>
+          <t>https://doi.org/10.1158/2767-9764.22546298.v1</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545557</t>
+          <t>https://doi.org/10.1158/2767-9764.22546298.v1</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -7755,22 +7755,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362547156</t>
+          <t>https://openalex.org/W4362630791</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>Supplementary Figure S5 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -7790,12 +7790,12 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.c.6550976.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546286.v1</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.c.6550976.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546286.v1</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -7842,22 +7842,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Trace M. Jones, Claudia M. Espitia, Juan Chipollini, Benjamin R. Lee, Jason A. Wertheim, Jennifer S. Carew, Steffan T. Nawrocki</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630567</t>
+          <t>https://openalex.org/W4362630815</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>Supplementary Figure S4 from Targeting NEDDylation is a Novel Strategy to Attenuate Cisplatin-induced Nephrotoxicity</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545557.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546289.v1</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545557.v1</t>
+          <t>https://doi.org/10.1158/2767-9764.22546289.v1</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -7929,27 +7929,27 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Vera Ademà, Feiyang Ma, Rashmi Kanagal‐Shamanna, Natthakan Thongon, Guillermo Montalbán Bravo, Hui Yang, Scott A. Peslak, Feng Wang, Pamela Acha, Françesc Solé, Pamela Lockyer, Margherita Cassari, Jaroslaw P. Maciejewski, Valeria Visconte, Irene Gañán-Gómez, Yuanbin Song, Carlos E. Bueso‐Ramos, Matteo Pellegrini, Tuyet M. Tan, Rafael Bejar, Jennifer S. Carew, Stephanie Halene, Valeria Santini, Gheath Alatrash, Karen Clise-Dwyer, Guillermo Garcia‐Manero, Gerd A. Blobel, Simona Colla</t>
+          <t>Steffan T. Nawrocki, Julian Olea, Claudia Villa Celi, Homa Dadrastoussi, Kaijin Wu, Denice Tsao‐Wei, Anthony Colombo, Matt Coffey, Eduardo Fernandez Hernandez, Xuelian Chen, Gerard J. Nuovo, Jennifer S. Carew, Ann Mohrbacher, Paul Fields, Peter Kühn, Imran Siddiqi, Akil Merchant, Kevin R. Kelly</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362630623</t>
+          <t>https://openalex.org/W4389816721</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Supplementary Data from Targeting the EIF2AK1 Signaling Pathway Rescues Red Blood Cell Production in &amp;lt;i&amp;gt;SF3B1&amp;lt;/i&amp;gt;-Mutant Myelodysplastic Syndromes With Ringed Sideroblasts</t>
+          <t>Data from Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2023-04-04</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7964,12 +7964,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545554.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6982800</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7979,7 +7979,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/2643-3230.22545554.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6982800</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4389816721</t>
+          <t>https://openalex.org/W4389820136</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6982800</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6982800.v1</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8091,7 +8091,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6982800</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6982800.v1</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -8103,85 +8103,172 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Steffan T. Nawrocki, Julian Olea, Claudia Villa Celi, Homa Dadrastoussi, Kaijin Wu, Denice Tsao‐Wei, Anthony Colombo, Matt Coffey, Eduardo Fernandez Hernandez, Xuelian Chen, Gerard J. Nuovo, Jennifer S. Carew, Ann Mohrbacher, Paul Fields, Peter Kühn, Imran Siddiqi, Akil Merchant, Kevin R. Kelly</t>
+          <t>Vanessa Ogbuji, Irasema C. Paster, Alejandro Recio-Boiles, Jennifer S. Carew, Steffan T. Nawrocki, Juan Chipollini</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>College of Medicine, University of Arizona, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA; Department of Medicine, The University of Arizona Cancer Center, Tucson, AZ 85724, USA; College of Medicine, University of Arizona, Tucson, AZ 85724, USA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4390273304</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Current Landscape of Immune Checkpoint Inhibitors for Metastatic Urothelial Carcinoma: Is There a Role for Additional T-Cell Blockade?</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2023-12-27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Cancers</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Multidisciplinary Digital Publishing Institute</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/cancers16010131</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38201559</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/cancers16010131</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Richard J. Rickles, Winnie F. Tam, Thomas P. Giordano, Linda M Pierce, Melissa Farwell, Douglas W. McMillin, Antoaneta S. Necheva, David M. Crowe, Mei Chen, William Avery, Vikram Kansra, Steffan T. Nawrocki, Jennifer S. Carew, Francis J. Giles, Constantine S. Mitsiades, Alexis A. Borisy, Kenneth C. Anderson, Margaret Lee</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>https://openalex.org/W4389820136</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Data from Comprehensive Single-Cell Immune Profiling Defines the Patient Multiple Myeloma Microenvironment Following Oncolytic Virus Therapy in a Phase Ib Trial</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2023-12-15</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6982800.v1</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>submittedVersion</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://openalex.org/W4392687896</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Data from Adenosine A2A and Beta-2 Adrenergic Receptor Agonists: Novel Selective and Synergistic Multiple Myeloma Targets Discovered through Systematic Combination Screening</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2023-04-03</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6536104.v1</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6982800.v1</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1535-7163.c.6536104.v1</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
         <is>
           <t>article</t>
         </is>
